--- a/DoE/DoE - TCC.xlsx
+++ b/DoE/DoE - TCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/yuichi_tokumoto_student-cs_fr/Documents/USP/TCC/Code/tcc_model/SELSP_simOpt/DoE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="14_{BE6FF1C8-8357-0342-8024-DD82E45DB8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0460C69-338B-9D47-943C-1ECB93904CA9}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="14_{BE6FF1C8-8357-0342-8024-DD82E45DB8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BA949B1-9E6D-1D4E-A033-5155C0444711}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="18000" activeTab="1" xr2:uid="{CC62E9E0-8C68-8E4C-8F69-EEE9016F081D}"/>
+    <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="18000" xr2:uid="{CC62E9E0-8C68-8E4C-8F69-EEE9016F081D}"/>
   </bookViews>
   <sheets>
     <sheet name="Premissas" sheetId="2" r:id="rId1"/>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF39DBB-A739-5D48-810A-D71B7B4DA503}">
   <dimension ref="D3:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -641,6 +641,7 @@
     <col min="1" max="3" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="3.7109375" customWidth="1"/>
     <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" style="12"/>
     <col min="12" max="16" width="20.7109375" style="12" customWidth="1"/>
@@ -854,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56037AD5-F184-5C4A-9E5F-27DB4DC80428}">
   <dimension ref="A1:G973"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D973"/>
     </sheetView>
   </sheetViews>
